--- a/data/trans_orig/Q23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Provincia-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.802079341773</v>
+        <v>15.80703564924861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.9427800501621</v>
+        <v>15.94950761006901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.24176480859986</v>
+        <v>15.26214972844322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.20106700753282</v>
+        <v>16.28912064163781</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.85415830836507</v>
+        <v>16.91835534734153</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.04981573682097</v>
+        <v>17.02665181060428</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.07871208567507</v>
+        <v>16.11629733844756</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.44140654122002</v>
+        <v>16.44628704208948</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.12067017801124</v>
+        <v>16.11695052488551</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.66122422211889</v>
+        <v>16.53661260250558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.92119373274359</v>
+        <v>16.91464716782705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.56063134173952</v>
+        <v>16.54784484941805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.59078827498388</v>
+        <v>17.60508484725366</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.47546757843606</v>
+        <v>18.65156238061489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.75297435052561</v>
+        <v>18.71420974313955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.80231899591254</v>
+        <v>16.81323135859955</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.34490113651071</v>
+        <v>17.34820603817287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.21080878754094</v>
+        <v>17.18580596060793</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.78693843794862</v>
+        <v>15.80345263734336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>15.80079203796545</v>
+        <v>15.81591096844043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.08936107836817</v>
+        <v>16.09193790359721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.96020136165602</v>
+        <v>16.98517227831437</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.70454027257202</v>
+        <v>16.71774907190898</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.83925990839266</v>
+        <v>16.80898763961642</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.29477126972947</v>
+        <v>16.3169614242426</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.29442197266156</v>
+        <v>16.27890830763337</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.46388370501749</v>
+        <v>16.48177548316671</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.4013798808571</v>
+        <v>16.40743970011181</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.59187013288054</v>
+        <v>16.6080514547025</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.80652279464025</v>
+        <v>16.80118533718859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.36878588260431</v>
+        <v>18.52317924713081</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.14344192514888</v>
+        <v>18.12525469436289</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.94584232477643</v>
+        <v>18.01174925934596</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>16.92821117275826</v>
+        <v>16.95275262778533</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.02809569517889</v>
+        <v>17.01748286817434</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.08671483801281</v>
+        <v>17.10995447242757</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.681246835357</v>
+        <v>15.63157240628011</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.303838652829</v>
+        <v>16.32267025646469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.53323164250123</v>
+        <v>16.52134709605738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.05358527758535</v>
+        <v>17.10435311087862</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.97237817290224</v>
+        <v>16.91766590309776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.83423247057106</v>
+        <v>16.90702103954265</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.32672679094505</v>
+        <v>16.32357201486439</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.67599845519363</v>
+        <v>16.6913009999465</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.78935125377115</v>
+        <v>16.83654873936514</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.5362809339895</v>
+        <v>16.51000164107562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.21101303729681</v>
+        <v>17.26463983154713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.87242228473201</v>
+        <v>17.94563579231287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.57986374951431</v>
+        <v>19.67066464943559</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.54389564124903</v>
+        <v>18.52092033692448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.55833168950667</v>
+        <v>18.63470078486636</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.34044771926116</v>
+        <v>17.34948259671082</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.50416998888885</v>
+        <v>17.46012593679127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.85810890378256</v>
+        <v>17.91681600656432</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.18128630045449</v>
+        <v>16.16576847134888</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.94485226826184</v>
+        <v>15.9409056000725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.05137343388038</v>
+        <v>16.0807187537849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.17688661912546</v>
+        <v>17.13314463925285</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>18.12992257760773</v>
+        <v>18.07422377038255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.31455825092095</v>
+        <v>17.39827487901718</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.67014232870577</v>
+        <v>16.64850120546209</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.98921883073865</v>
+        <v>16.99175792414886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.70374072211481</v>
+        <v>16.68385204082179</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.8074356686745</v>
+        <v>16.77632181239094</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.88522522879823</v>
+        <v>16.88548283163479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.29239463189034</v>
+        <v>17.28474801811674</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.38349001899979</v>
+        <v>18.51258121374853</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>20.90798882107934</v>
+        <v>20.86243876152378</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.80916613545333</v>
+        <v>18.82750248783758</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.35277519928306</v>
+        <v>17.32188951107658</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.11003813994699</v>
+        <v>18.11519583376394</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.66294497762762</v>
+        <v>17.61131428803577</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.34077224296304</v>
+        <v>16.3250531175518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.93783937052283</v>
+        <v>16.00792801007633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.33651499101803</v>
+        <v>16.31547575417867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.27061882768804</v>
+        <v>16.3217482218823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.44280770734049</v>
+        <v>16.52874292925682</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.21663430733635</v>
+        <v>16.22124021992842</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.44649544930259</v>
+        <v>16.48108293582127</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.33099470146664</v>
+        <v>16.34042351770908</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.40418050322514</v>
+        <v>16.4024913540045</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.33525642344602</v>
+        <v>17.40577829878805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.5822609911962</v>
+        <v>17.63155086409817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.67543176970913</v>
+        <v>17.66511576162829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.38111473085321</v>
+        <v>18.39829767292659</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.00982775063495</v>
+        <v>17.98683012996888</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.76187178266184</v>
+        <v>17.6561346605605</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.58090583950029</v>
+        <v>17.61323070054057</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.5328706150654</v>
+        <v>17.46918997623624</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.33642807636928</v>
+        <v>17.35737869591417</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.90225481646245</v>
+        <v>15.89293179162265</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.86958891783212</v>
+        <v>15.8707930329203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.54118474229669</v>
+        <v>16.57412742462543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.41101129516326</v>
+        <v>16.33894137923324</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.06963997690388</v>
+        <v>17.0462354578615</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.30793901880295</v>
+        <v>17.23602714539997</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.14824793020391</v>
+        <v>16.1679277597111</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>16.48214216770042</v>
+        <v>16.48051330984575</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.98139981405647</v>
+        <v>16.98840852848019</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.76062755986613</v>
+        <v>16.85309216650068</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.11508368235726</v>
+        <v>17.09183131363913</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.06962192839128</v>
+        <v>18.03950214567374</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.62622961574141</v>
+        <v>17.55027191103694</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>19.44225983343012</v>
+        <v>19.47206767643374</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.38704676502284</v>
+        <v>19.46089939680249</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>16.90154811277753</v>
+        <v>16.88614263891575</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>17.63746835910711</v>
+        <v>17.69378650007169</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.23665887938693</v>
+        <v>18.17735253938531</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.0445109944735</v>
+        <v>16.00823485781362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.14886288672149</v>
+        <v>16.1862134070925</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.02055116750415</v>
+        <v>16.02990514835764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.3910382901149</v>
+        <v>17.3667747919393</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>16.92573872084202</v>
+        <v>16.94298494896801</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.77625651376283</v>
+        <v>16.79918885585457</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.7048506655218</v>
+        <v>16.6789799620447</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.54635052857975</v>
+        <v>16.56022282794609</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.42534426314219</v>
+        <v>16.43940482975938</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.78353020747313</v>
+        <v>16.80020678626974</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.77388820316904</v>
+        <v>16.79531463270854</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.66181412840897</v>
+        <v>16.61526795570709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.1982068700887</v>
+        <v>19.14152498083541</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.00475374888358</v>
+        <v>17.95887063252258</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.76831930028395</v>
+        <v>17.82761043215552</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.49758030708144</v>
+        <v>17.44678913346392</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.08398469181014</v>
+        <v>17.10177881556062</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.01118797522685</v>
+        <v>17.00745869795939</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.15540406063829</v>
+        <v>16.16940789267745</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.3184855395902</v>
+        <v>16.32718342859776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15.99498331680079</v>
+        <v>16.02738513179999</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16.67006035774697</v>
+        <v>16.68777049055538</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.06189632292731</v>
+        <v>17.08257155584902</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>17.52492949575346</v>
+        <v>17.57252402541225</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>16.43624914223495</v>
+        <v>16.43867696576413</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>16.69228142567161</v>
+        <v>16.67143665223287</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>16.78852791621527</v>
+        <v>16.81764803539082</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.9899350975719</v>
+        <v>17.0084434753658</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.85752225619803</v>
+        <v>16.86595581049587</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.76324444315198</v>
+        <v>16.81174320720508</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.54972939121822</v>
+        <v>17.56598667786148</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>18.28011012572873</v>
+        <v>18.34967935299865</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>19.033553348615</v>
+        <v>18.94235868481903</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>17.0341280814484</v>
+        <v>17.07565485901315</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>17.26242164057668</v>
+        <v>17.27141880340279</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.56577592784714</v>
+        <v>17.56384152784887</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.19272551372568</v>
+        <v>16.19169417497756</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.31580058065951</v>
+        <v>16.30678673415865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16.29872976552547</v>
+        <v>16.3264753318745</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17.2334039734938</v>
+        <v>17.23159006844712</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>17.38684878070887</v>
+        <v>17.40590224652148</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.40479161804085</v>
+        <v>17.40188700006528</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>16.60672778746126</v>
+        <v>16.62170243663266</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>16.78737257483996</v>
+        <v>16.79786805086331</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>16.81659519251818</v>
+        <v>16.82846326717741</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.49446987663723</v>
+        <v>16.48825570781888</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.61427244682575</v>
+        <v>16.61229024792916</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.67495468225422</v>
+        <v>16.67221651736084</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.78523697512433</v>
+        <v>17.75321952956343</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.94877114028113</v>
+        <v>17.99854466205621</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.94141125902019</v>
+        <v>17.96236487090352</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.89032562422917</v>
+        <v>16.89572437984266</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>17.08367446751702</v>
+        <v>17.08408028443056</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.12056009994124</v>
+        <v>17.12589926137929</v>
       </c>
     </row>
     <row r="31">
